--- a/security-configuration-hardening-guide/vsphere/8.0/VMware vSphere Security Configuration Guide 8 - Firewalling Helper.xlsx
+++ b/security-configuration-hardening-guide/vsphere/8.0/VMware vSphere Security Configuration Guide 8 - Firewalling Helper.xlsx
@@ -1,12 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <fileSharing readOnlyRecommended="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAC2A66-7EDD-47ED-A32F-DF0FF655DA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140F185B-5906-45FB-AB4E-F18A857B5BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="684" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="3750" windowWidth="45480" windowHeight="15030" tabRatio="684" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions &amp; Intent" sheetId="7" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="487">
   <si>
     <t>Source or Destination Group</t>
   </si>
@@ -1491,6 +1490,9 @@
   </si>
   <si>
     <t>vSphere Lifecycle Manager Configuration Store (settingsd)</t>
+  </si>
+  <si>
+    <t>Version 803-20250709-01. Visit https://via.vmw.com/scg for the latest version.</t>
   </si>
 </sst>
 </file>
@@ -3204,7 +3206,7 @@
   <dimension ref="A1:L572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F272" sqref="F272"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3232,7 +3234,7 @@
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B2"/>
       <c r="D2"/>
